--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3425.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3425.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.948859215164597</v>
+        <v>1.384480357170105</v>
       </c>
       <c r="B1">
-        <v>1.349549222212168</v>
+        <v>2.638251304626465</v>
       </c>
       <c r="C1">
-        <v>2.536076773229123</v>
+        <v>5.990755081176758</v>
       </c>
       <c r="D1">
-        <v>5.23081051986187</v>
+        <v>2.316596031188965</v>
       </c>
       <c r="E1">
-        <v>2.342958775652543</v>
+        <v>1.20943820476532</v>
       </c>
     </row>
   </sheetData>
